--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E67D8-EAB3-40F7-A37A-CB296FCE120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C982B6-2207-4E8B-B068-4C8C6EA93CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -107,18 +107,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメージを与える</t>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを与える（１回）</t>
     <rPh sb="5" eb="6">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モンスター</t>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dbuffを与える（連続）</t>
+    <rPh sb="6" eb="7">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetFreezeTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -248,14 +284,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{83BC8230-D1BA-4BA9-A868-BD8388E246E6}" name="Target"/>
     <tableColumn id="3" xr3:uid="{B16AFD4A-F7AA-41A5-BC66-DBA2CA833A86}" name="PercentDamage"/>
     <tableColumn id="5" xr3:uid="{0EF9AB60-C97E-4285-94EF-FB141E1946FA}" name="FixtDamage"/>
+    <tableColumn id="4" xr3:uid="{B4C1E120-09A1-421A-928C-BCB1E196CAA8}" name="Delay"/>
+    <tableColumn id="6" xr3:uid="{B24D3002-AB93-4FC3-BC7C-65C8DCE6FB71}" name="Count"/>
+    <tableColumn id="7" xr3:uid="{9CFF7B1C-FC2C-4539-9755-67B1A2F4B0CE}" name="Interval"/>
+    <tableColumn id="8" xr3:uid="{8FC87C37-6D86-49A5-96D1-75DD269A34E1}" name="TargetFreezeTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,19 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,16 +618,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,13 +644,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,13 +664,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -623,16 +684,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -640,44 +707,111 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>100</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>101</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A755CF0E-8A55-4E54-8974-F175A6557ED4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -779,7 +913,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -811,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C982B6-2207-4E8B-B068-4C8C6EA93CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8A5BB-72D0-4777-8C9F-4401D21D5079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,17 @@
     <rPh sb="0" eb="2">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hit01</t>
+  </si>
+  <si>
+    <t>Hit01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -284,11 +295,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
+    <tableColumn id="9" xr3:uid="{4C654015-2168-4B89-BD21-C54EDA55BBC8}" name="Effect"/>
     <tableColumn id="3" xr3:uid="{B16AFD4A-F7AA-41A5-BC66-DBA2CA833A86}" name="PercentDamage"/>
     <tableColumn id="5" xr3:uid="{0EF9AB60-C97E-4285-94EF-FB141E1946FA}" name="FixtDamage"/>
     <tableColumn id="4" xr3:uid="{B4C1E120-09A1-421A-928C-BCB1E196CAA8}" name="Delay"/>
@@ -597,20 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,199 +630,226 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
         <v>120</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>180</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>60</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>90</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8A5BB-72D0-4777-8C9F-4401D21D5079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41729871-9310-4DC4-B97D-DF0E850EC3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
     <sheet name="Type" sheetId="3" r:id="rId3"/>
-    <sheet name="Target" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Target</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,13 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダメージパーセント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,14 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モンスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダメージを与える（１回）</t>
     <rPh sb="5" eb="6">
       <t>アタ</t>
@@ -166,6 +146,60 @@
   </si>
   <si>
     <t>Hit01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力UP</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅延</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数ダメージの場合間隔時間</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標が氷結時間</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -295,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I12" totalsRowShown="0">
+  <autoFilter ref="A1:I12" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
@@ -609,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -630,25 +664,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -659,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -682,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -705,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>120</v>
@@ -731,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>180</v>
@@ -757,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -783,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -809,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -835,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -851,6 +885,42 @@
       </c>
       <c r="I9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1001</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1002</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -865,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC2588-032C-4CDC-9D71-7DF9AFEBBE74}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -878,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -888,7 +958,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -898,37 +968,77 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A755CF0E-8A55-4E54-8974-F175A6557ED4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -952,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -960,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -968,39 +1078,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2311FB-AC82-4522-A9BE-5D704A4BC7C4}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41729871-9310-4DC4-B97D-DF0E850EC3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3661E89-BE04-4ED6-9A37-A2A0DABCA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -329,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -719,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -788,48 +788,42 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -837,19 +831,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -858,24 +852,24 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -884,42 +878,120 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1001</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>1002</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>30</v>
       </c>
     </row>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3661E89-BE04-4ED6-9A37-A2A0DABCA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8AE5F-5900-4581-A845-C7B61844B7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -329,8 +327,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
@@ -643,20 +641,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -708,7 +706,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -731,7 +729,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -757,7 +755,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -783,7 +781,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -806,7 +804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -855,7 +853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -881,7 +879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -907,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -959,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -970,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1001</v>
       </c>
@@ -981,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1002</v>
       </c>
@@ -993,6 +991,29 @@
       </c>
       <c r="E15">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1013,102 +1034,102 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1127,9 +1148,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1137,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1153,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8AE5F-5900-4581-A845-C7B61844B7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C5E29C-D520-48AB-B3FD-10A1F8E0B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C5E29C-D520-48AB-B3FD-10A1F8E0B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67C823-B1FA-4374-982D-2B412700A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67C823-B1FA-4374-982D-2B412700A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD056177-359F-490C-802A-63DC9BE4BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD056177-359F-490C-802A-63DC9BE4BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044DA521-8A3E-4E34-AE3B-2A385DD060D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044DA521-8A3E-4E34-AE3B-2A385DD060D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2C35C-5BDF-4CBF-BA4C-AD723F030ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21690" windowHeight="12525" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -199,6 +199,38 @@
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即死ぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impact3</t>
+  </si>
+  <si>
+    <t>Effect2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impact3_2</t>
+  </si>
+  <si>
+    <t>エフェクト2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーズ（freeze）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imapct4_2</t>
+  </si>
+  <si>
+    <t>移動スピードアップ</t>
   </si>
 </sst>
 </file>
@@ -327,12 +359,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K19" totalsRowShown="0">
+  <autoFilter ref="A1:K19" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
+    <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
     <tableColumn id="2" xr3:uid="{10E6E4D3-AE5A-412E-8F18-7C49FC88F044}" name="Type"/>
     <tableColumn id="9" xr3:uid="{4C654015-2168-4B89-BD21-C54EDA55BBC8}" name="Effect"/>
+    <tableColumn id="11" xr3:uid="{5D1A2112-1146-4B56-B409-BC81C28466AA}" name="Effect2"/>
     <tableColumn id="3" xr3:uid="{B16AFD4A-F7AA-41A5-BC66-DBA2CA833A86}" name="PercentDamage"/>
     <tableColumn id="5" xr3:uid="{0EF9AB60-C97E-4285-94EF-FB141E1946FA}" name="FixtDamage"/>
     <tableColumn id="4" xr3:uid="{B4C1E120-09A1-421A-928C-BCB1E196CAA8}" name="Delay"/>
@@ -641,379 +675,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>180</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>360</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>120</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>300</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>60</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>75</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>90</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1000</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1001</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1002</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2000</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>300</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3001</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3002</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>101</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1028,109 +1135,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC2588-032C-4CDC-9D71-7DF9AFEBBE74}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1142,15 +1259,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A755CF0E-8A55-4E54-8974-F175A6557ED4}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1158,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1166,7 +1283,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1174,12 +1307,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2C35C-5BDF-4CBF-BA4C-AD723F030ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69ECD36-681E-40AC-A884-B9AFC5FD4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21690" windowHeight="12525" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="5184" yWindow="660" windowWidth="15816" windowHeight="8760" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,18 +678,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,6 +737,9 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -747,7 +750,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -770,7 +773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,7 +799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -822,7 +825,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,7 +848,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -868,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -894,7 +897,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -920,7 +923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1001</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1002</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3001</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3002</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5000</v>
       </c>
@@ -1141,112 +1144,112 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1265,9 +1268,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>101</v>
       </c>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69ECD36-681E-40AC-A884-B9AFC5FD4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BB381-CD14-47AB-BFEF-7D08BC99F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5184" yWindow="660" windowWidth="15816" windowHeight="8760" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="3936" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -359,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K21" totalsRowShown="0">
+  <autoFilter ref="A1:K21" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
@@ -675,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -737,9 +737,6 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -1003,98 +1000,104 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.2</v>
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3001</v>
+        <v>1002</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
         <v>30</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3002</v>
+        <v>2000</v>
       </c>
       <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1103,26 +1106,72 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
+        <v>3001</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3002</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>5000</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>101</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>200</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>3</v>
       </c>
     </row>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BB381-CD14-47AB-BFEF-7D08BC99F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129EFBC-A0F6-4329-8ACA-0D281E8690C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -359,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K22" totalsRowShown="0">
+  <autoFilter ref="A1:K22" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
@@ -675,21 +675,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -920,16 +920,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="F10">
         <v>25</v>
       </c>
@@ -946,16 +943,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
       <c r="F11">
         <v>50</v>
       </c>
@@ -972,16 +966,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
       <c r="F12">
         <v>75</v>
       </c>
@@ -998,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>201</v>
       </c>
@@ -1050,7 +1041,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -1061,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -1072,7 +1063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1002</v>
       </c>
@@ -1086,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -1109,7 +1100,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3001</v>
       </c>
@@ -1132,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3002</v>
       </c>
@@ -1155,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>5000</v>
       </c>
@@ -1173,6 +1164,26 @@
       </c>
       <c r="J21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1193,112 +1204,112 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1317,9 +1328,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>101</v>
       </c>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129EFBC-A0F6-4329-8ACA-0D281E8690C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F0728-51D7-4D9B-AA18-EEDA234AD4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -231,6 +231,16 @@
   </si>
   <si>
     <t>移動スピードアップ</t>
+  </si>
+  <si>
+    <t>最大HPパーセント回復</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -678,7 +688,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1171,10 +1181,10 @@
         <v>10000</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1325,7 +1335,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1370,6 +1380,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F0728-51D7-4D9B-AA18-EEDA234AD4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA510BA2-5157-441E-8865-25AA3E312192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -688,7 +688,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1190,6 +1190,9 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA510BA2-5157-441E-8865-25AA3E312192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E64DE8-493C-4D16-8AA6-3E3C27DF169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K21" totalsRowShown="0">
+  <autoFilter ref="A1:K21" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1174,29 +1174,6 @@
       </c>
       <c r="J21">
         <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E64DE8-493C-4D16-8AA6-3E3C27DF169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3647E-B807-4108-8C07-0DB565440A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K22" totalsRowShown="0">
+  <autoFilter ref="A1:K22" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1174,6 +1174,29 @@
       </c>
       <c r="J21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3647E-B807-4108-8C07-0DB565440A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AA6D6F-E4EC-473F-A817-115763607722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -241,6 +241,9 @@
       <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imapct122_1</t>
   </si>
 </sst>
 </file>
@@ -369,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}" name="テーブル1" displayName="テーブル1" ref="A1:K23" totalsRowShown="0">
+  <autoFilter ref="A1:K23" xr:uid="{A27F34CE-FA67-4077-B8DE-FFB0EA290150}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{68CF4A4F-FC2D-45F6-B212-1CCAA9483548}" name="ID"/>
     <tableColumn id="10" xr3:uid="{1E391CFD-AFA8-4C77-B649-6DC94EE4A39C}" name="Des"/>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25423E6-BD6B-41B8-B321-0C5F4D617FBB}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -697,6 +700,8 @@
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -1001,33 +1006,33 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>150</v>
-      </c>
-      <c r="G13">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1036,10 +1041,10 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1053,149 +1058,175 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
       <c r="G17">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>300</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.2</v>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>80</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>5000</v>
+        <v>3002</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>101</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>10000</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Impact.xlsx
+++ b/Config/Excel/Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AA6D6F-E4EC-473F-A817-115763607722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02A09B-5B12-46B7-BD05-A8E26FB34116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
+    <workbookView xWindow="1920" yWindow="1608" windowWidth="20316" windowHeight="11352" xr2:uid="{105A015E-0574-476A-82CA-A27003BB2BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,20 +691,20 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>122</v>
       </c>
@@ -1015,7 +1015,10 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>200</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>201</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3001</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3002</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5000</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -1248,112 +1251,112 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1372,9 +1375,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>101</v>
       </c>
